--- a/数据更新记录-更新到190627.xlsx
+++ b/数据更新记录-更新到190627.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据更新记录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="541">
   <si>
     <t>日期</t>
   </si>
@@ -1826,6 +1826,22 @@
   </si>
   <si>
     <t>notice,wardrobe,index、levels</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品-特殊·皮肤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>V5.0.4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hacker\’s Secret</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2402,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
@@ -3620,11 +3636,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4638,6 +4654,23 @@
       </c>
       <c r="E59" s="6" t="s">
         <v>510</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B60" s="6">
+        <v>4395</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
